--- a/data_slr.xlsx
+++ b/data_slr.xlsx
@@ -5,32 +5,78 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\OneDrive - Industrial University of HoChiMinh City\TEACHING\IUH\IUH.PTDL\LT\LT-PTDL-new\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2df5f914d4f82fa6/Máy tính/nmptdlai/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE29E804-97D8-4401-A4BB-E80C549B7DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="13_ncr:1_{DE29E804-97D8-4401-A4BB-E80C549B7DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78E6976F-6177-4CDB-8C22-9CD781F7A86C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="bt" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>TimeAds</t>
   </si>
   <si>
     <t>ProfitRate</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t>x_1*y_1</t>
+  </si>
+  <si>
+    <t>x_i ^ 2</t>
+  </si>
+  <si>
+    <t>X_test</t>
+  </si>
+  <si>
+    <t>y_test</t>
+  </si>
+  <si>
+    <t>y_predict</t>
+  </si>
+  <si>
+    <t>residual</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>x*y</t>
+  </si>
+  <si>
+    <t>x^2</t>
   </si>
 </sst>
 </file>
@@ -83,6 +129,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -350,17 +400,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -368,7 +418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0.5</v>
       </c>
@@ -376,7 +426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -384,7 +434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>4</v>
       </c>
@@ -392,7 +442,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>5</v>
       </c>
@@ -400,7 +450,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3</v>
       </c>
@@ -408,7 +458,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -416,7 +466,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -424,7 +474,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>9</v>
       </c>
@@ -432,7 +482,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
@@ -440,12 +490,291 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11">
         <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D22F1B87-92BB-44FF-AED3-2EE5A25DE787}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <f>A2*B2</f>
+        <v>80</v>
+      </c>
+      <c r="D2">
+        <f>A2^2</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C7" si="0">A3*B3</f>
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D7" si="1">A3^2</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <f>SUM(A2:A7)</f>
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <f>SUM(B2:B7)</f>
+        <v>36</v>
+      </c>
+      <c r="C8">
+        <f>SUM(C2:C7)</f>
+        <v>190</v>
+      </c>
+      <c r="D8">
+        <f>SUM(D2:D7)</f>
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DCCFD83-8294-44B9-8746-8134132F85CA}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <f>A2*B2</f>
+        <v>63</v>
+      </c>
+      <c r="D2">
+        <f>A2^2</f>
+        <v>49</v>
+      </c>
+      <c r="E2">
+        <f>(4*C6-A6*B6)/(4*D6-A6^2)</f>
+        <v>1.2352048558421851</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C5" si="0">A3*B3</f>
+        <v>28</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D5" si="1">A3^2</f>
+        <v>16</v>
+      </c>
+      <c r="E3" t="e">
+        <f t="shared" ref="E3:E5" si="2">(4*C7-A7*B7)/(4*D7-A7^2)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>0.5</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="E4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="E5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <f t="shared" ref="A6:B6" si="3">SUM(A2:A5)</f>
+        <v>20.5</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="C6">
+        <f>SUM(C2:C5)</f>
+        <v>199.5</v>
+      </c>
+      <c r="D6">
+        <f>SUM(D2:D5)</f>
+        <v>146.25</v>
       </c>
     </row>
   </sheetData>
